--- a/Code/Results/Cases/Case_1_160/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_160/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.372411290837363</v>
+        <v>1.76820097031981</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1985518725228701</v>
+        <v>0.145921414004988</v>
       </c>
       <c r="E2">
-        <v>0.3065670064221351</v>
+        <v>0.1814845868011474</v>
       </c>
       <c r="F2">
-        <v>1.072837051569365</v>
+        <v>1.742266804659053</v>
       </c>
       <c r="G2">
-        <v>1.262554604392051</v>
+        <v>1.274910148976801</v>
       </c>
       <c r="H2">
-        <v>0.7127777861596769</v>
+        <v>1.165069515157768</v>
       </c>
       <c r="I2">
-        <v>0.2443707468506009</v>
+        <v>0.9147059153448183</v>
       </c>
       <c r="J2">
-        <v>0.4788773580455796</v>
+        <v>0.256761826735584</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.246123454912095</v>
+        <v>0.9989631696511765</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.937006304947261</v>
+        <v>1.635495077113944</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1783756212748102</v>
+        <v>0.1396554260951746</v>
       </c>
       <c r="E3">
-        <v>0.2753903254800321</v>
+        <v>0.1716639927178107</v>
       </c>
       <c r="F3">
-        <v>0.9923040243248522</v>
+        <v>1.747959765855725</v>
       </c>
       <c r="G3">
-        <v>1.123556877000595</v>
+        <v>1.260638274770471</v>
       </c>
       <c r="H3">
-        <v>0.6587348079524418</v>
+        <v>1.166689257361639</v>
       </c>
       <c r="I3">
-        <v>0.2782513552555024</v>
+        <v>0.9369197368218689</v>
       </c>
       <c r="J3">
-        <v>0.4297114751674513</v>
+        <v>0.2411312169825663</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.950905796054883</v>
+        <v>0.911455373729666</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.670894090814613</v>
+        <v>1.554045017029011</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1660853818429047</v>
+        <v>0.1357749990589383</v>
       </c>
       <c r="E4">
-        <v>0.2563229294142388</v>
+        <v>0.1656119241487843</v>
       </c>
       <c r="F4">
-        <v>0.9470320109300872</v>
+        <v>1.753005444373173</v>
       </c>
       <c r="G4">
-        <v>1.042690609450034</v>
+        <v>1.253198973076877</v>
       </c>
       <c r="H4">
-        <v>0.627966594320327</v>
+        <v>1.168604239977711</v>
       </c>
       <c r="I4">
-        <v>0.3008786768228902</v>
+        <v>0.9513939186398197</v>
       </c>
       <c r="J4">
-        <v>0.399628909974524</v>
+        <v>0.2315154996156537</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.770739667009593</v>
+        <v>0.8577648477051412</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.56269347874121</v>
+        <v>1.520863088655176</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1610957268799496</v>
+        <v>0.1341853262824344</v>
       </c>
       <c r="E5">
-        <v>0.2485667443469168</v>
+        <v>0.163140192663576</v>
       </c>
       <c r="F5">
-        <v>0.9295447493482243</v>
+        <v>1.755449729365822</v>
       </c>
       <c r="G5">
-        <v>1.010752518067662</v>
+        <v>1.250498024972856</v>
       </c>
       <c r="H5">
-        <v>0.6159836631400992</v>
+        <v>1.16961519780385</v>
       </c>
       <c r="I5">
-        <v>0.3105344201980227</v>
+        <v>0.957501761153889</v>
       </c>
       <c r="J5">
-        <v>0.3873901768187551</v>
+        <v>0.2275926394208199</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.697542223838212</v>
+        <v>0.8358961780160143</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.544739643147921</v>
+        <v>1.515353884890089</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1602681660439913</v>
+        <v>0.1339208556097162</v>
       </c>
       <c r="E6">
-        <v>0.2472795408408928</v>
+        <v>0.1627294369136081</v>
       </c>
       <c r="F6">
-        <v>0.9266966154179102</v>
+        <v>1.75587899424724</v>
       </c>
       <c r="G6">
-        <v>1.005507491985128</v>
+        <v>1.250069438797823</v>
       </c>
       <c r="H6">
-        <v>0.6140260148223717</v>
+        <v>1.169796968137206</v>
       </c>
       <c r="I6">
-        <v>0.312163353034455</v>
+        <v>0.9585286045259718</v>
       </c>
       <c r="J6">
-        <v>0.3853589874145911</v>
+        <v>0.2269409949871886</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.685399730192358</v>
+        <v>0.8322655666956393</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.669433962464723</v>
+        <v>1.553597472777881</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1660180212641933</v>
+        <v>0.1357535941135382</v>
       </c>
       <c r="E7">
-        <v>0.2562182766056225</v>
+        <v>0.1655786114832907</v>
       </c>
       <c r="F7">
-        <v>0.946792390662452</v>
+        <v>1.7530368395647</v>
       </c>
       <c r="G7">
-        <v>1.042255909008006</v>
+        <v>1.25316121139619</v>
       </c>
       <c r="H7">
-        <v>0.6278028050355431</v>
+        <v>1.16861694163525</v>
       </c>
       <c r="I7">
-        <v>0.301007166804947</v>
+        <v>0.9514754434649255</v>
       </c>
       <c r="J7">
-        <v>0.3994637804979817</v>
+        <v>0.2314626119178484</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.769751671644258</v>
+        <v>0.8574698750901177</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.22198675493604</v>
+        <v>1.722438270652901</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1915709829900152</v>
+        <v>0.143767737332098</v>
       </c>
       <c r="E8">
-        <v>0.2957985159571805</v>
+        <v>0.1781031148335188</v>
       </c>
       <c r="F8">
-        <v>1.044147058098034</v>
+        <v>1.743906984385575</v>
       </c>
       <c r="G8">
-        <v>1.213629064754144</v>
+        <v>1.269713126299536</v>
       </c>
       <c r="H8">
-        <v>0.6936101499600511</v>
+        <v>1.165436434291394</v>
       </c>
       <c r="I8">
-        <v>0.2556591932727628</v>
+        <v>0.9221917234627934</v>
       </c>
       <c r="J8">
-        <v>0.4618990230652855</v>
+        <v>0.2513763761489543</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.144069924639979</v>
+        <v>0.9687826405036049</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.318651560945113</v>
+        <v>2.053735487917493</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2427618159013321</v>
+        <v>0.1592238383876463</v>
       </c>
       <c r="E9">
-        <v>0.3742678877440397</v>
+        <v>0.2024838999032426</v>
       </c>
       <c r="F9">
-        <v>1.272592849033018</v>
+        <v>1.738381172878903</v>
       </c>
       <c r="G9">
-        <v>1.590747036391974</v>
+        <v>1.312778510812564</v>
       </c>
       <c r="H9">
-        <v>0.8443951421131715</v>
+        <v>1.166543806661679</v>
       </c>
       <c r="I9">
-        <v>0.1823800867425085</v>
+        <v>0.8714086726705617</v>
       </c>
       <c r="J9">
-        <v>0.5854993692500443</v>
+        <v>0.2902712355528507</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>2.889587863561474</v>
+        <v>1.187362822326122</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.137647228181891</v>
+        <v>2.297219529737333</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.281516800166969</v>
+        <v>0.170426282177047</v>
       </c>
       <c r="E10">
-        <v>0.4328492022879047</v>
+        <v>0.2202838334427852</v>
       </c>
       <c r="F10">
-        <v>1.470160751762577</v>
+        <v>1.741978332391668</v>
       </c>
       <c r="G10">
-        <v>1.901450185017751</v>
+        <v>1.351035113415662</v>
       </c>
       <c r="H10">
-        <v>0.9724523939713663</v>
+        <v>1.171893935994746</v>
       </c>
       <c r="I10">
-        <v>0.1398783779170945</v>
+        <v>0.8381722413346662</v>
       </c>
       <c r="J10">
-        <v>0.6775440842706644</v>
+        <v>0.3187425609097119</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>3.448677967840354</v>
+        <v>1.348128157536109</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.514459907997548</v>
+        <v>2.407997545043941</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2995249229955874</v>
+        <v>0.1754904994927102</v>
       </c>
       <c r="E11">
-        <v>0.4598090854772394</v>
+        <v>0.2283565462464878</v>
       </c>
       <c r="F11">
-        <v>1.568254774890733</v>
+        <v>1.745301736484251</v>
       </c>
       <c r="G11">
-        <v>2.052318993731546</v>
+        <v>1.369908606226062</v>
       </c>
       <c r="H11">
-        <v>1.035497876464916</v>
+        <v>1.175325962965275</v>
       </c>
       <c r="I11">
-        <v>0.1234599766616551</v>
+        <v>0.8239421289358848</v>
       </c>
       <c r="J11">
-        <v>0.7198230043296405</v>
+        <v>0.3316703985678515</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>3.706613204670759</v>
+        <v>1.421302686146475</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.657886506027239</v>
+        <v>2.449947540577227</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3064112047487981</v>
+        <v>0.1774036858385131</v>
       </c>
       <c r="E12">
-        <v>0.4700732427601793</v>
+        <v>0.231409864107178</v>
       </c>
       <c r="F12">
-        <v>1.606751947420022</v>
+        <v>1.746804761538726</v>
       </c>
       <c r="G12">
-        <v>2.111033410779953</v>
+        <v>1.377269528107661</v>
       </c>
       <c r="H12">
-        <v>1.060160814254203</v>
+        <v>1.176770159585089</v>
       </c>
       <c r="I12">
-        <v>0.1177055403172549</v>
+        <v>0.8186819329785475</v>
       </c>
       <c r="J12">
-        <v>0.7359046223353545</v>
+        <v>0.3365621927207627</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>3.80491179359143</v>
+        <v>1.449017645412823</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.626962141492641</v>
+        <v>2.440912848121911</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3049249194880161</v>
+        <v>0.1769918471961205</v>
       </c>
       <c r="E13">
-        <v>0.4678600445740244</v>
+        <v>0.2307524412388062</v>
       </c>
       <c r="F13">
-        <v>1.598397867379802</v>
+        <v>1.746470152036096</v>
       </c>
       <c r="G13">
-        <v>2.098314067080224</v>
+        <v>1.375674666810397</v>
       </c>
       <c r="H13">
-        <v>1.054812382459829</v>
+        <v>1.176452680215903</v>
       </c>
       <c r="I13">
-        <v>0.1189235255059629</v>
+        <v>0.8198090889725922</v>
       </c>
       <c r="J13">
-        <v>0.7324377524483481</v>
+        <v>0.3355088258299332</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>3.783711835971928</v>
+        <v>1.443048504574335</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.52624418319192</v>
+        <v>2.411448789627912</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3000900397241253</v>
+        <v>0.1756479888100415</v>
       </c>
       <c r="E14">
-        <v>0.4606523564029459</v>
+        <v>0.228607818183292</v>
       </c>
       <c r="F14">
-        <v>1.571393833649694</v>
+        <v>1.745420479528391</v>
       </c>
       <c r="G14">
-        <v>2.057116399556207</v>
+        <v>1.370509891631883</v>
       </c>
       <c r="H14">
-        <v>1.037510478244258</v>
+        <v>1.175441874773355</v>
       </c>
       <c r="I14">
-        <v>0.122977011202039</v>
+        <v>0.8235067921203232</v>
       </c>
       <c r="J14">
-        <v>0.7211445350715593</v>
+        <v>0.3320729249808778</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>3.714687122941996</v>
+        <v>1.423582708702952</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.464651320060398</v>
+        <v>2.393401258387428</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2971376681120574</v>
+        <v>0.1748242493856935</v>
       </c>
       <c r="E15">
-        <v>0.4562449383127714</v>
+        <v>0.2272936969464396</v>
       </c>
       <c r="F15">
-        <v>1.555034436403972</v>
+        <v>1.74480942658208</v>
       </c>
       <c r="G15">
-        <v>2.032094703914879</v>
+        <v>1.367374253544369</v>
       </c>
       <c r="H15">
-        <v>1.027018506244758</v>
+        <v>1.174841583956464</v>
       </c>
       <c r="I15">
-        <v>0.1255215475314202</v>
+        <v>0.8257884852814463</v>
       </c>
       <c r="J15">
-        <v>0.7142368403343369</v>
+        <v>0.3299678474042196</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>3.672492157632689</v>
+        <v>1.411660025828439</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.113117453087796</v>
+        <v>2.289980114743742</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2803485732162869</v>
+        <v>0.1700946877546698</v>
       </c>
       <c r="E16">
-        <v>0.4310944165110016</v>
+        <v>0.2197557588039416</v>
       </c>
       <c r="F16">
-        <v>1.463929436460134</v>
+        <v>1.741795252296598</v>
       </c>
       <c r="G16">
-        <v>1.891799904847971</v>
+        <v>1.349831487392265</v>
       </c>
       <c r="H16">
-        <v>0.9684368894524198</v>
+        <v>1.171689818691277</v>
       </c>
       <c r="I16">
-        <v>0.1410136409439282</v>
+        <v>0.8391201552337257</v>
       </c>
       <c r="J16">
-        <v>0.6747903197677232</v>
+        <v>0.3178971928888075</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>3.431902541663419</v>
+        <v>1.343346812432515</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.898635040292277</v>
+        <v>2.226537568037884</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2701542781759514</v>
+        <v>0.1671851403671951</v>
       </c>
       <c r="E17">
-        <v>0.4157519179812823</v>
+        <v>0.2151251061141792</v>
       </c>
       <c r="F17">
-        <v>1.410258278643695</v>
+        <v>1.740379613676225</v>
       </c>
       <c r="G17">
-        <v>1.808317319437606</v>
+        <v>1.339447940739717</v>
       </c>
       <c r="H17">
-        <v>0.9337932832166587</v>
+        <v>1.170012704287956</v>
       </c>
       <c r="I17">
-        <v>0.1512937704000166</v>
+        <v>0.8475268696763294</v>
       </c>
       <c r="J17">
-        <v>0.6507041443013293</v>
+        <v>0.3104859269655122</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>3.285302526224427</v>
+        <v>1.301449061973074</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.775661899845488</v>
+        <v>2.19004867791125</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2643255378435896</v>
+        <v>0.1655086462464794</v>
       </c>
       <c r="E18">
-        <v>0.4069558879724937</v>
+        <v>0.2124593712791523</v>
       </c>
       <c r="F18">
-        <v>1.38015036767311</v>
+        <v>1.739724051607624</v>
       </c>
       <c r="G18">
-        <v>1.761182879905704</v>
+        <v>1.333613847119892</v>
       </c>
       <c r="H18">
-        <v>0.9143114992088499</v>
+        <v>1.169141968761323</v>
       </c>
       <c r="I18">
-        <v>0.1574781900463016</v>
+        <v>0.8524458614018364</v>
       </c>
       <c r="J18">
-        <v>0.6368878802464479</v>
+        <v>0.3062209273147971</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>3.20131403537215</v>
+        <v>1.277354532327649</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.734088972448319</v>
+        <v>2.177694486028031</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2623576409721409</v>
+        <v>0.1649404973691873</v>
       </c>
       <c r="E19">
-        <v>0.4039823192324832</v>
+        <v>0.2115564066575999</v>
       </c>
       <c r="F19">
-        <v>1.370082471243364</v>
+        <v>1.73952928368486</v>
       </c>
       <c r="G19">
-        <v>1.745369488098163</v>
+        <v>1.331662191497003</v>
       </c>
       <c r="H19">
-        <v>0.9077887758171528</v>
+        <v>1.168863248558694</v>
       </c>
       <c r="I19">
-        <v>0.1596175238975093</v>
+        <v>0.8541257013572405</v>
       </c>
       <c r="J19">
-        <v>0.6322159995701071</v>
+        <v>0.3047764957548935</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>3.172930976322675</v>
+        <v>1.269197236247976</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.921425685146858</v>
+        <v>2.23329098259876</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2712357966803864</v>
+        <v>0.1674951766935777</v>
       </c>
       <c r="E20">
-        <v>0.4173821262273663</v>
+        <v>0.2156182864602485</v>
       </c>
       <c r="F20">
-        <v>1.415891611867266</v>
+        <v>1.740513874548768</v>
       </c>
       <c r="G20">
-        <v>1.817111386431691</v>
+        <v>1.340538960824233</v>
       </c>
       <c r="H20">
-        <v>0.9374344882849073</v>
+        <v>1.170181510720596</v>
       </c>
       <c r="I20">
-        <v>0.1501710282213686</v>
+        <v>0.8466232968379348</v>
       </c>
       <c r="J20">
-        <v>0.6532641929605632</v>
+        <v>0.3112751021366336</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>3.300873266281769</v>
+        <v>1.305908745023999</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.555806446940267</v>
+        <v>2.420103088938333</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3015082327577119</v>
+        <v>0.1760428348992207</v>
       </c>
       <c r="E21">
-        <v>0.4627678457589255</v>
+        <v>0.2292378457045459</v>
       </c>
       <c r="F21">
-        <v>1.579287445058057</v>
+        <v>1.745722142021734</v>
       </c>
       <c r="G21">
-        <v>2.069172328251</v>
+        <v>1.372021085002871</v>
       </c>
       <c r="H21">
-        <v>1.042570190572178</v>
+        <v>1.175734841280985</v>
       </c>
       <c r="I21">
-        <v>0.1217734692046442</v>
+        <v>0.8224171967935874</v>
       </c>
       <c r="J21">
-        <v>0.7244595740043991</v>
+        <v>0.3330822347293747</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>3.734943500919599</v>
+        <v>1.429300144343358</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.97476925932142</v>
+        <v>2.542199389127461</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.321690847094402</v>
+        <v>0.1816028877211977</v>
       </c>
       <c r="E22">
-        <v>0.4927567491778788</v>
+        <v>0.2381177301521973</v>
       </c>
       <c r="F22">
-        <v>1.694046677780321</v>
+        <v>1.750552225270027</v>
       </c>
       <c r="G22">
-        <v>2.243260343352034</v>
+        <v>1.393844652024882</v>
       </c>
       <c r="H22">
-        <v>1.115937786909711</v>
+        <v>1.180207364467719</v>
       </c>
       <c r="I22">
-        <v>0.1059360485422758</v>
+        <v>0.8073460155169965</v>
       </c>
       <c r="J22">
-        <v>0.7714140334878437</v>
+        <v>0.3473127891966072</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>4.022331056132089</v>
+        <v>1.509974492457275</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.750716734147943</v>
+        <v>2.477034439207671</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3108779155470103</v>
+        <v>0.1786377741548364</v>
       </c>
       <c r="E23">
-        <v>0.4767173957297643</v>
+        <v>0.2333803519876199</v>
       </c>
       <c r="F23">
-        <v>1.632006270365721</v>
+        <v>1.747843181918014</v>
       </c>
       <c r="G23">
-        <v>2.149412324052321</v>
+        <v>1.382081963630071</v>
       </c>
       <c r="H23">
-        <v>1.076317496211345</v>
+        <v>1.177742811714467</v>
       </c>
       <c r="I23">
-        <v>0.1141239108811494</v>
+        <v>0.8153210772986732</v>
       </c>
       <c r="J23">
-        <v>0.7463099854114432</v>
+        <v>0.3397197410850197</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>3.868569758528736</v>
+        <v>1.466914442324537</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.911120998371359</v>
+        <v>2.230237810247274</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2707467431191901</v>
+        <v>0.1673550209746253</v>
       </c>
       <c r="E24">
-        <v>0.4166450332874732</v>
+        <v>0.2153953305531005</v>
       </c>
       <c r="F24">
-        <v>1.41334246346338</v>
+        <v>1.740452682261875</v>
       </c>
       <c r="G24">
-        <v>1.813132923274935</v>
+        <v>1.340045288638549</v>
       </c>
       <c r="H24">
-        <v>0.9357869510348564</v>
+        <v>1.170104902302626</v>
       </c>
       <c r="I24">
-        <v>0.1506777690032077</v>
+        <v>0.8470315347268613</v>
       </c>
       <c r="J24">
-        <v>0.6521066987368727</v>
+        <v>0.3109183289925284</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>3.293832827383142</v>
+        <v>1.303892543931283</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.020059660029517</v>
+        <v>1.964093883676014</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2287512526427236</v>
+        <v>0.1550698250651834</v>
       </c>
       <c r="E25">
-        <v>0.352909333458733</v>
+        <v>0.1959078214325132</v>
       </c>
       <c r="F25">
-        <v>1.206113163751183</v>
+        <v>1.738539480775529</v>
       </c>
       <c r="G25">
-        <v>1.483501739970762</v>
+        <v>1.299977162602488</v>
       </c>
       <c r="H25">
-        <v>0.8008888611002192</v>
+        <v>1.165451879860967</v>
       </c>
       <c r="I25">
-        <v>0.2003544752490711</v>
+        <v>0.8844332267518471</v>
       </c>
       <c r="J25">
-        <v>0.5518870825212616</v>
+        <v>0.2797668624521066</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>2.6862562685547</v>
+        <v>1.128200127038582</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_160/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_160/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.76820097031981</v>
+        <v>3.37241129083742</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.145921414004988</v>
+        <v>0.1985518725229269</v>
       </c>
       <c r="E2">
-        <v>0.1814845868011474</v>
+        <v>0.3065670064221493</v>
       </c>
       <c r="F2">
-        <v>1.742266804659053</v>
+        <v>1.072837051569365</v>
       </c>
       <c r="G2">
-        <v>1.274910148976801</v>
+        <v>1.262554604392108</v>
       </c>
       <c r="H2">
-        <v>1.165069515157768</v>
+        <v>0.7127777861596769</v>
       </c>
       <c r="I2">
-        <v>0.9147059153448183</v>
+        <v>0.2443707468506027</v>
       </c>
       <c r="J2">
-        <v>0.256761826735584</v>
+        <v>0.4788773580456649</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.9989631696511765</v>
+        <v>2.246123454912038</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.635495077113944</v>
+        <v>2.937006304947204</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1396554260951746</v>
+        <v>0.178375621274796</v>
       </c>
       <c r="E3">
-        <v>0.1716639927178107</v>
+        <v>0.2753903254800463</v>
       </c>
       <c r="F3">
-        <v>1.747959765855725</v>
+        <v>0.9923040243248522</v>
       </c>
       <c r="G3">
-        <v>1.260638274770471</v>
+        <v>1.123556877000567</v>
       </c>
       <c r="H3">
-        <v>1.166689257361639</v>
+        <v>0.6587348079524418</v>
       </c>
       <c r="I3">
-        <v>0.9369197368218689</v>
+        <v>0.2782513552555095</v>
       </c>
       <c r="J3">
-        <v>0.2411312169825663</v>
+        <v>0.429711475167565</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.911455373729666</v>
+        <v>1.950905796054826</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.554045017029011</v>
+        <v>2.670894090814784</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1357749990589383</v>
+        <v>0.1660853818430041</v>
       </c>
       <c r="E4">
-        <v>0.1656119241487843</v>
+        <v>0.2563229294142033</v>
       </c>
       <c r="F4">
-        <v>1.753005444373173</v>
+        <v>0.9470320109300872</v>
       </c>
       <c r="G4">
-        <v>1.253198973076877</v>
+        <v>1.04269060945002</v>
       </c>
       <c r="H4">
-        <v>1.168604239977711</v>
+        <v>0.6279665943204407</v>
       </c>
       <c r="I4">
-        <v>0.9513939186398197</v>
+        <v>0.3008786768228884</v>
       </c>
       <c r="J4">
-        <v>0.2315154996156537</v>
+        <v>0.3996289099744246</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.8577648477051412</v>
+        <v>1.770739667009508</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.520863088655176</v>
+        <v>2.562693478741153</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1341853262824344</v>
+        <v>0.1610957268798927</v>
       </c>
       <c r="E5">
-        <v>0.163140192663576</v>
+        <v>0.2485667443469524</v>
       </c>
       <c r="F5">
-        <v>1.755449729365822</v>
+        <v>0.9295447493482243</v>
       </c>
       <c r="G5">
-        <v>1.250498024972856</v>
+        <v>1.010752518067704</v>
       </c>
       <c r="H5">
-        <v>1.16961519780385</v>
+        <v>0.6159836631402271</v>
       </c>
       <c r="I5">
-        <v>0.957501761153889</v>
+        <v>0.3105344201980014</v>
       </c>
       <c r="J5">
-        <v>0.2275926394208199</v>
+        <v>0.3873901768186698</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.8358961780160143</v>
+        <v>1.697542223838354</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.515353884890089</v>
+        <v>2.544739643147921</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1339208556097162</v>
+        <v>0.160268166044105</v>
       </c>
       <c r="E6">
-        <v>0.1627294369136081</v>
+        <v>0.2472795408408857</v>
       </c>
       <c r="F6">
-        <v>1.75587899424724</v>
+        <v>0.9266966154179102</v>
       </c>
       <c r="G6">
-        <v>1.250069438797823</v>
+        <v>1.005507491985128</v>
       </c>
       <c r="H6">
-        <v>1.169796968137206</v>
+        <v>0.6140260148223717</v>
       </c>
       <c r="I6">
-        <v>0.9585286045259718</v>
+        <v>0.3121633530344514</v>
       </c>
       <c r="J6">
-        <v>0.2269409949871886</v>
+        <v>0.3853589874145911</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.8322655666956393</v>
+        <v>1.685399730192216</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.553597472777881</v>
+        <v>2.669433962464723</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1357535941135382</v>
+        <v>0.1660180212640796</v>
       </c>
       <c r="E7">
-        <v>0.1655786114832907</v>
+        <v>0.2562182766056154</v>
       </c>
       <c r="F7">
-        <v>1.7530368395647</v>
+        <v>0.946792390662452</v>
       </c>
       <c r="G7">
-        <v>1.25316121139619</v>
+        <v>1.042255909008105</v>
       </c>
       <c r="H7">
-        <v>1.16861694163525</v>
+        <v>0.6278028050355573</v>
       </c>
       <c r="I7">
-        <v>0.9514754434649255</v>
+        <v>0.3010071668049434</v>
       </c>
       <c r="J7">
-        <v>0.2314626119178484</v>
+        <v>0.3994637804980812</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.8574698750901177</v>
+        <v>1.769751671644201</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.722438270652901</v>
+        <v>3.22198675493587</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.143767737332098</v>
+        <v>0.1915709829899725</v>
       </c>
       <c r="E8">
-        <v>0.1781031148335188</v>
+        <v>0.2957985159571592</v>
       </c>
       <c r="F8">
-        <v>1.743906984385575</v>
+        <v>1.044147058098048</v>
       </c>
       <c r="G8">
-        <v>1.269713126299536</v>
+        <v>1.213629064754201</v>
       </c>
       <c r="H8">
-        <v>1.165436434291394</v>
+        <v>0.6936101499601648</v>
       </c>
       <c r="I8">
-        <v>0.9221917234627934</v>
+        <v>0.2556591932727557</v>
       </c>
       <c r="J8">
-        <v>0.2513763761489543</v>
+        <v>0.4618990230652287</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.9687826405036049</v>
+        <v>2.144069924639922</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.053735487917493</v>
+        <v>4.318651560944943</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1592238383876463</v>
+        <v>0.2427618159013321</v>
       </c>
       <c r="E9">
-        <v>0.2024838999032426</v>
+        <v>0.37426788774399</v>
       </c>
       <c r="F9">
-        <v>1.738381172878903</v>
+        <v>1.27259284903306</v>
       </c>
       <c r="G9">
-        <v>1.312778510812564</v>
+        <v>1.590747036392031</v>
       </c>
       <c r="H9">
-        <v>1.166543806661679</v>
+        <v>0.8443951421130294</v>
       </c>
       <c r="I9">
-        <v>0.8714086726705617</v>
+        <v>0.1823800867425298</v>
       </c>
       <c r="J9">
-        <v>0.2902712355528507</v>
+        <v>0.5854993692500301</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.187362822326122</v>
+        <v>2.889587863561474</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.297219529737333</v>
+        <v>5.137647228181777</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.170426282177047</v>
+        <v>0.2815168001670401</v>
       </c>
       <c r="E10">
-        <v>0.2202838334427852</v>
+        <v>0.4328492022879047</v>
       </c>
       <c r="F10">
-        <v>1.741978332391668</v>
+        <v>1.470160751762592</v>
       </c>
       <c r="G10">
-        <v>1.351035113415662</v>
+        <v>1.901450185017779</v>
       </c>
       <c r="H10">
-        <v>1.171893935994746</v>
+        <v>0.9724523939713663</v>
       </c>
       <c r="I10">
-        <v>0.8381722413346662</v>
+        <v>0.1398783779171247</v>
       </c>
       <c r="J10">
-        <v>0.3187425609097119</v>
+        <v>0.6775440842705933</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.348128157536109</v>
+        <v>3.448677967840467</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.407997545043941</v>
+        <v>5.514459907997377</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1754904994927102</v>
+        <v>0.2995249229953743</v>
       </c>
       <c r="E11">
-        <v>0.2283565462464878</v>
+        <v>0.4598090854772465</v>
       </c>
       <c r="F11">
-        <v>1.745301736484251</v>
+        <v>1.568254774890718</v>
       </c>
       <c r="G11">
-        <v>1.369908606226062</v>
+        <v>2.052318993731518</v>
       </c>
       <c r="H11">
-        <v>1.175325962965275</v>
+        <v>1.035497876464916</v>
       </c>
       <c r="I11">
-        <v>0.8239421289358848</v>
+        <v>0.1234599766616498</v>
       </c>
       <c r="J11">
-        <v>0.3316703985678515</v>
+        <v>0.7198230043297116</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.421302686146475</v>
+        <v>3.706613204670816</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.449947540577227</v>
+        <v>5.657886506027296</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1774036858385131</v>
+        <v>0.3064112047486702</v>
       </c>
       <c r="E12">
-        <v>0.231409864107178</v>
+        <v>0.4700732427602006</v>
       </c>
       <c r="F12">
-        <v>1.746804761538726</v>
+        <v>1.606751947420022</v>
       </c>
       <c r="G12">
-        <v>1.377269528107661</v>
+        <v>2.11103341078001</v>
       </c>
       <c r="H12">
-        <v>1.176770159585089</v>
+        <v>1.060160814254232</v>
       </c>
       <c r="I12">
-        <v>0.8186819329785475</v>
+        <v>0.117705540317278</v>
       </c>
       <c r="J12">
-        <v>0.3365621927207627</v>
+        <v>0.7359046223353829</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.449017645412823</v>
+        <v>3.80491179359143</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.440912848121911</v>
+        <v>5.626962141492754</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1769918471961205</v>
+        <v>0.3049249194877888</v>
       </c>
       <c r="E13">
-        <v>0.2307524412388062</v>
+        <v>0.4678600445740244</v>
       </c>
       <c r="F13">
-        <v>1.746470152036096</v>
+        <v>1.598397867379802</v>
       </c>
       <c r="G13">
-        <v>1.375674666810397</v>
+        <v>2.098314067080338</v>
       </c>
       <c r="H13">
-        <v>1.176452680215903</v>
+        <v>1.054812382459829</v>
       </c>
       <c r="I13">
-        <v>0.8198090889725922</v>
+        <v>0.1189235255059558</v>
       </c>
       <c r="J13">
-        <v>0.3355088258299332</v>
+        <v>0.7324377524483907</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.443048504574335</v>
+        <v>3.783711835971872</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.411448789627912</v>
+        <v>5.526244183192091</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1756479888100415</v>
+        <v>0.30009003972404</v>
       </c>
       <c r="E14">
-        <v>0.228607818183292</v>
+        <v>0.460652356402953</v>
       </c>
       <c r="F14">
-        <v>1.745420479528391</v>
+        <v>1.571393833649708</v>
       </c>
       <c r="G14">
-        <v>1.370509891631883</v>
+        <v>2.057116399556179</v>
       </c>
       <c r="H14">
-        <v>1.175441874773355</v>
+        <v>1.037510478244116</v>
       </c>
       <c r="I14">
-        <v>0.8235067921203232</v>
+        <v>0.1229770112020354</v>
       </c>
       <c r="J14">
-        <v>0.3320729249808778</v>
+        <v>0.7211445350715877</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.423582708702952</v>
+        <v>3.714687122942053</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.393401258387428</v>
+        <v>5.464651320060227</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1748242493856935</v>
+        <v>0.2971376681121711</v>
       </c>
       <c r="E15">
-        <v>0.2272936969464396</v>
+        <v>0.4562449383127856</v>
       </c>
       <c r="F15">
-        <v>1.74480942658208</v>
+        <v>1.555034436403972</v>
       </c>
       <c r="G15">
-        <v>1.367374253544369</v>
+        <v>2.032094703914936</v>
       </c>
       <c r="H15">
-        <v>1.174841583956464</v>
+        <v>1.027018506244758</v>
       </c>
       <c r="I15">
-        <v>0.8257884852814463</v>
+        <v>0.1255215475314166</v>
       </c>
       <c r="J15">
-        <v>0.3299678474042196</v>
+        <v>0.7142368403343085</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.411660025828439</v>
+        <v>3.672492157632746</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.289980114743742</v>
+        <v>5.113117453087852</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1700946877546698</v>
+        <v>0.2803485732162727</v>
       </c>
       <c r="E16">
-        <v>0.2197557588039416</v>
+        <v>0.4310944165110229</v>
       </c>
       <c r="F16">
-        <v>1.741795252296598</v>
+        <v>1.463929436460148</v>
       </c>
       <c r="G16">
-        <v>1.349831487392265</v>
+        <v>1.891799904848</v>
       </c>
       <c r="H16">
-        <v>1.171689818691277</v>
+        <v>0.9684368894524482</v>
       </c>
       <c r="I16">
-        <v>0.8391201552337257</v>
+        <v>0.1410136409439247</v>
       </c>
       <c r="J16">
-        <v>0.3178971928888075</v>
+        <v>0.6747903197678653</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.343346812432515</v>
+        <v>3.431902541663533</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.226537568037884</v>
+        <v>4.89863504029239</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1671851403671951</v>
+        <v>0.2701542781759514</v>
       </c>
       <c r="E17">
-        <v>0.2151251061141792</v>
+        <v>0.4157519179812823</v>
       </c>
       <c r="F17">
-        <v>1.740379613676225</v>
+        <v>1.410258278643695</v>
       </c>
       <c r="G17">
-        <v>1.339447940739717</v>
+        <v>1.808317319437606</v>
       </c>
       <c r="H17">
-        <v>1.170012704287956</v>
+        <v>0.9337932832167724</v>
       </c>
       <c r="I17">
-        <v>0.8475268696763294</v>
+        <v>0.1512937704000219</v>
       </c>
       <c r="J17">
-        <v>0.3104859269655122</v>
+        <v>0.6507041443013151</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.301449061973074</v>
+        <v>3.28530252622437</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.19004867791125</v>
+        <v>4.775661899845318</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1655086462464794</v>
+        <v>0.2643255378436749</v>
       </c>
       <c r="E18">
-        <v>0.2124593712791523</v>
+        <v>0.4069558879724724</v>
       </c>
       <c r="F18">
-        <v>1.739724051607624</v>
+        <v>1.380150367673096</v>
       </c>
       <c r="G18">
-        <v>1.333613847119892</v>
+        <v>1.761182879905704</v>
       </c>
       <c r="H18">
-        <v>1.169141968761323</v>
+        <v>0.9143114992088499</v>
       </c>
       <c r="I18">
-        <v>0.8524458614018364</v>
+        <v>0.1574781900462998</v>
       </c>
       <c r="J18">
-        <v>0.3062209273147971</v>
+        <v>0.6368878802464053</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.277354532327649</v>
+        <v>3.201314035372093</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.177694486028031</v>
+        <v>4.734088972448262</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1649404973691873</v>
+        <v>0.2623576409720272</v>
       </c>
       <c r="E19">
-        <v>0.2115564066575999</v>
+        <v>0.4039823192324903</v>
       </c>
       <c r="F19">
-        <v>1.73952928368486</v>
+        <v>1.37008247124335</v>
       </c>
       <c r="G19">
-        <v>1.331662191497003</v>
+        <v>1.745369488098191</v>
       </c>
       <c r="H19">
-        <v>1.168863248558694</v>
+        <v>0.9077887758170675</v>
       </c>
       <c r="I19">
-        <v>0.8541257013572405</v>
+        <v>0.1596175238975057</v>
       </c>
       <c r="J19">
-        <v>0.3047764957548935</v>
+        <v>0.632215999570036</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.269197236247976</v>
+        <v>3.172930976322732</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.23329098259876</v>
+        <v>4.921425685146858</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1674951766935777</v>
+        <v>0.2712357966803722</v>
       </c>
       <c r="E20">
-        <v>0.2156182864602485</v>
+        <v>0.4173821262273663</v>
       </c>
       <c r="F20">
-        <v>1.740513874548768</v>
+        <v>1.415891611867266</v>
       </c>
       <c r="G20">
-        <v>1.340538960824233</v>
+        <v>1.817111386431691</v>
       </c>
       <c r="H20">
-        <v>1.170181510720596</v>
+        <v>0.937434488285021</v>
       </c>
       <c r="I20">
-        <v>0.8466232968379348</v>
+        <v>0.1501710282213917</v>
       </c>
       <c r="J20">
-        <v>0.3112751021366336</v>
+        <v>0.6532641929606058</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.305908745023999</v>
+        <v>3.300873266281769</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.420103088938333</v>
+        <v>5.55580644694038</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1760428348992207</v>
+        <v>0.3015082327576977</v>
       </c>
       <c r="E21">
-        <v>0.2292378457045459</v>
+        <v>0.4627678457589468</v>
       </c>
       <c r="F21">
-        <v>1.745722142021734</v>
+        <v>1.579287445058085</v>
       </c>
       <c r="G21">
-        <v>1.372021085002871</v>
+        <v>2.069172328251085</v>
       </c>
       <c r="H21">
-        <v>1.175734841280985</v>
+        <v>1.042570190572206</v>
       </c>
       <c r="I21">
-        <v>0.8224171967935874</v>
+        <v>0.1217734692046104</v>
       </c>
       <c r="J21">
-        <v>0.3330822347293747</v>
+        <v>0.7244595740043991</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.429300144343358</v>
+        <v>3.734943500919712</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.542199389127461</v>
+        <v>5.974769259321192</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1816028877211977</v>
+        <v>0.3216908470942883</v>
       </c>
       <c r="E22">
-        <v>0.2381177301521973</v>
+        <v>0.4927567491778575</v>
       </c>
       <c r="F22">
-        <v>1.750552225270027</v>
+        <v>1.694046677780321</v>
       </c>
       <c r="G22">
-        <v>1.393844652024882</v>
+        <v>2.243260343352034</v>
       </c>
       <c r="H22">
-        <v>1.180207364467719</v>
+        <v>1.115937786909711</v>
       </c>
       <c r="I22">
-        <v>0.8073460155169965</v>
+        <v>0.105936048542274</v>
       </c>
       <c r="J22">
-        <v>0.3473127891966072</v>
+        <v>0.771414033487801</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.509974492457275</v>
+        <v>4.022331056132145</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.477034439207671</v>
+        <v>5.750716734147886</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1786377741548364</v>
+        <v>0.3108779155470245</v>
       </c>
       <c r="E23">
-        <v>0.2333803519876199</v>
+        <v>0.4767173957297501</v>
       </c>
       <c r="F23">
-        <v>1.747843181918014</v>
+        <v>1.632006270365721</v>
       </c>
       <c r="G23">
-        <v>1.382081963630071</v>
+        <v>2.149412324052321</v>
       </c>
       <c r="H23">
-        <v>1.177742811714467</v>
+        <v>1.076317496211374</v>
       </c>
       <c r="I23">
-        <v>0.8153210772986732</v>
+        <v>0.1141239108811156</v>
       </c>
       <c r="J23">
-        <v>0.3397197410850197</v>
+        <v>0.7463099854114716</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.466914442324537</v>
+        <v>3.868569758528736</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.230237810247274</v>
+        <v>4.91112099837153</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1673550209746253</v>
+        <v>0.270746743119048</v>
       </c>
       <c r="E24">
-        <v>0.2153953305531005</v>
+        <v>0.4166450332874732</v>
       </c>
       <c r="F24">
-        <v>1.740452682261875</v>
+        <v>1.41334246346338</v>
       </c>
       <c r="G24">
-        <v>1.340045288638549</v>
+        <v>1.81313292327502</v>
       </c>
       <c r="H24">
-        <v>1.170104902302626</v>
+        <v>0.9357869510348849</v>
       </c>
       <c r="I24">
-        <v>0.8470315347268613</v>
+        <v>0.1506777690031971</v>
       </c>
       <c r="J24">
-        <v>0.3109183289925284</v>
+        <v>0.6521066987368869</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.303892543931283</v>
+        <v>3.293832827383028</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.964093883676014</v>
+        <v>4.020059660029574</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1550698250651834</v>
+        <v>0.2287512526427236</v>
       </c>
       <c r="E25">
-        <v>0.1959078214325132</v>
+        <v>0.3529093334587117</v>
       </c>
       <c r="F25">
-        <v>1.738539480775529</v>
+        <v>1.206113163751183</v>
       </c>
       <c r="G25">
-        <v>1.299977162602488</v>
+        <v>1.483501739970734</v>
       </c>
       <c r="H25">
-        <v>1.165451879860967</v>
+        <v>0.8008888611003329</v>
       </c>
       <c r="I25">
-        <v>0.8844332267518471</v>
+        <v>0.200354475249064</v>
       </c>
       <c r="J25">
-        <v>0.2797668624521066</v>
+        <v>0.55188708252129</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.128200127038582</v>
+        <v>2.686256268554644</v>
       </c>
       <c r="M25">
         <v>0</v>
